--- a/2022/Realme/Others/Shop Open Close Name Change/Retail Code Off List Natore.xlsx
+++ b/2022/Realme/Others/Shop Open Close Name Change/Retail Code Off List Natore.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -151,16 +151,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,7 +503,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -542,7 +542,7 @@
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -556,13 +556,13 @@
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -573,9 +573,9 @@
       <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="4"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -584,20 +584,20 @@
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="4"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="4"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
